--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1391460.163277711</v>
+        <v>1387716.234077389</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33320543.97072588</v>
+        <v>33320543.97072589</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5898131.87192947</v>
+        <v>5898131.871929464</v>
       </c>
     </row>
     <row r="9">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>410.1937988817585</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>421.9182721901105</v>
       </c>
       <c r="D11" t="n">
-        <v>99.40358993468578</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>417.5942214949873</v>
       </c>
       <c r="F11" t="n">
-        <v>411.7459793965841</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>28.21893018905078</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>197.8107631172787</v>
+        <v>197.8107631172784</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>244.6372086654007</v>
       </c>
       <c r="V11" t="n">
-        <v>347.1480046672115</v>
+        <v>347.1480046672113</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>257.773082616623</v>
       </c>
       <c r="X11" t="n">
-        <v>403.1082628881822</v>
+        <v>403.108262888182</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.3604865650429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.057656633497</v>
+        <v>178.0576566334968</v>
       </c>
       <c r="C13" t="n">
-        <v>158.9933185033071</v>
+        <v>158.9933185033069</v>
       </c>
       <c r="D13" t="n">
-        <v>152.3764369721923</v>
+        <v>16.52672579028416</v>
       </c>
       <c r="E13" t="n">
-        <v>156.2176478134699</v>
+        <v>156.2176478134697</v>
       </c>
       <c r="F13" t="n">
-        <v>163.0972075995611</v>
+        <v>163.0972075995609</v>
       </c>
       <c r="G13" t="n">
-        <v>151.2509926853066</v>
+        <v>151.2509926853063</v>
       </c>
       <c r="H13" t="n">
-        <v>119.177844116177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62155779981423</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>131.1394972125076</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9819759573272</v>
+        <v>227.981975957327</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>263.759989733444</v>
       </c>
       <c r="V13" t="n">
-        <v>272.2431771499736</v>
+        <v>272.2431771499734</v>
       </c>
       <c r="W13" t="n">
-        <v>257.4633644712712</v>
+        <v>257.4633644712709</v>
       </c>
       <c r="X13" t="n">
-        <v>58.06644064465669</v>
+        <v>231.0950612216212</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.3026980807326</v>
+        <v>213.3026980807323</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>410.1937988817585</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13.13113097220076</v>
       </c>
       <c r="D14" t="n">
-        <v>419.7079110789997</v>
+        <v>419.7079110789995</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>417.5942214949873</v>
       </c>
       <c r="F14" t="n">
-        <v>65.68615393563698</v>
+        <v>411.7459793965839</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>383.6648885090171</v>
       </c>
       <c r="H14" t="n">
-        <v>255.1815600432284</v>
+        <v>255.1815600432282</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>347.1480046672115</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>388.9641241447768</v>
+        <v>388.9641241447766</v>
       </c>
       <c r="X14" t="n">
-        <v>403.1082628881822</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.057656633497</v>
+        <v>178.0576566334968</v>
       </c>
       <c r="C16" t="n">
-        <v>158.9933185033071</v>
+        <v>158.9933185033069</v>
       </c>
       <c r="D16" t="n">
-        <v>152.3764369721923</v>
+        <v>152.3764369721921</v>
       </c>
       <c r="E16" t="n">
-        <v>156.2176478134699</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>163.0972075995611</v>
+        <v>163.0972075995609</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>151.2509926853063</v>
       </c>
       <c r="H16" t="n">
-        <v>119.177844116177</v>
+        <v>119.1778441161768</v>
       </c>
       <c r="I16" t="n">
-        <v>50.62155779981423</v>
+        <v>50.621557799814</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>131.1394972125076</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9819759573272</v>
+        <v>227.981975957327</v>
       </c>
       <c r="U16" t="n">
-        <v>209.3174333299634</v>
+        <v>263.759989733444</v>
       </c>
       <c r="V16" t="n">
-        <v>272.2431771499736</v>
+        <v>272.2431771499734</v>
       </c>
       <c r="W16" t="n">
-        <v>257.4633644712712</v>
+        <v>257.4633644712709</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.0950612216212</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.3026980807326</v>
+        <v>63.87123279630314</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>421.9182721901105</v>
       </c>
       <c r="D17" t="n">
-        <v>419.7079110789997</v>
+        <v>419.7079110789995</v>
       </c>
       <c r="E17" t="n">
-        <v>417.5942214949876</v>
+        <v>417.5942214949873</v>
       </c>
       <c r="F17" t="n">
-        <v>410.7329716253789</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>383.6648885090174</v>
+        <v>383.6648885090171</v>
       </c>
       <c r="H17" t="n">
-        <v>255.1815600432284</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>28.21893018905055</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>197.8107631172784</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>347.1480046672113</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>403.1082628881822</v>
+        <v>73.92682439313845</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>178.057656633497</v>
+        <v>178.0576566334968</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>158.9933185033069</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>152.3764369721921</v>
       </c>
       <c r="E19" t="n">
-        <v>156.2176478134699</v>
+        <v>156.2176478134697</v>
       </c>
       <c r="F19" t="n">
-        <v>37.67835276465195</v>
+        <v>163.0972075995609</v>
       </c>
       <c r="G19" t="n">
-        <v>151.2509926853066</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>119.177844116177</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62155779981423</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>131.1394972125076</v>
+        <v>15.40128150339805</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9819759573272</v>
+        <v>227.981975957327</v>
       </c>
       <c r="U19" t="n">
-        <v>263.7599897334442</v>
+        <v>263.759989733444</v>
       </c>
       <c r="V19" t="n">
-        <v>272.2431771499736</v>
+        <v>272.2431771499734</v>
       </c>
       <c r="W19" t="n">
-        <v>257.4633644712712</v>
+        <v>257.4633644712709</v>
       </c>
       <c r="X19" t="n">
-        <v>231.0950612216214</v>
+        <v>231.0950612216212</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.3026980807326</v>
+        <v>213.3026980807323</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>410.1937988817585</v>
+        <v>410.1937988817583</v>
       </c>
       <c r="C20" t="n">
-        <v>421.9182721901107</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>203.6263114034132</v>
+        <v>419.7079110789995</v>
       </c>
       <c r="E20" t="n">
-        <v>417.5942214949876</v>
+        <v>159.4213941275621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>383.6648885090174</v>
+        <v>383.6648885090171</v>
       </c>
       <c r="H20" t="n">
-        <v>255.1815600432284</v>
+        <v>255.1815600432282</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>28.21893018905055</v>
       </c>
       <c r="T20" t="n">
-        <v>197.8107631172787</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>244.6372086654007</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>388.9641241447766</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>178.057656633497</v>
+        <v>178.0576566334968</v>
       </c>
       <c r="C22" t="n">
-        <v>158.9933185033071</v>
+        <v>158.9933185033069</v>
       </c>
       <c r="D22" t="n">
-        <v>152.3764369721923</v>
+        <v>152.3764369721921</v>
       </c>
       <c r="E22" t="n">
-        <v>1.704089218799501</v>
+        <v>156.2176478134697</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>163.0972075995609</v>
       </c>
       <c r="G22" t="n">
-        <v>151.2509926853066</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62155779981423</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>131.1394972125076</v>
+        <v>15.40128150339805</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9819759573272</v>
+        <v>227.981975957327</v>
       </c>
       <c r="U22" t="n">
-        <v>263.7599897334442</v>
+        <v>263.759989733444</v>
       </c>
       <c r="V22" t="n">
-        <v>272.2431771499736</v>
+        <v>272.2431771499734</v>
       </c>
       <c r="W22" t="n">
-        <v>257.4633644712712</v>
+        <v>257.4633644712709</v>
       </c>
       <c r="X22" t="n">
-        <v>231.0950612216214</v>
+        <v>231.0950612216212</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.3026980807326</v>
+        <v>213.3026980807323</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>410.1937988817585</v>
+        <v>410.1937988817583</v>
       </c>
       <c r="C23" t="n">
-        <v>421.9182721901107</v>
+        <v>421.9182721901105</v>
       </c>
       <c r="D23" t="n">
-        <v>419.7079110789997</v>
+        <v>419.7079110789995</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>417.5942214949873</v>
       </c>
       <c r="F23" t="n">
-        <v>6.195904760131501</v>
+        <v>411.7459793965839</v>
       </c>
       <c r="G23" t="n">
-        <v>383.6648885090174</v>
+        <v>383.6648885090171</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>255.1815600432282</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.21893018905079</v>
+        <v>28.21893018905055</v>
       </c>
       <c r="T23" t="n">
-        <v>197.8107631172787</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>244.637208665401</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>388.9641241447768</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>403.1082628881822</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>156.1945026409707</v>
       </c>
     </row>
     <row r="24">
@@ -2496,7 +2496,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811437</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695713</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>397.6720623552212</v>
+        <v>156.7408525508151</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>251.4438588152145</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>304.5791181532709</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.8698817501079</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>39.10534254300309</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>63.55046334985471</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>198.440900535173</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.38088865078586</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>57.8949468260008</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>388.1111211665038</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>187.8112552393216</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H39" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>101.234774041739</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,10 +3678,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>45.9384054738909</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3720,7 +3720,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>384.1905372681214</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>67.6232466773896</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>90.68240064486314</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>236.6000878598901</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>368.0945165988671</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>59.96222715420082</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>11.45461388085714</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>155.9421478677844</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
@@ -4197,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>563.5192478431668</v>
+        <v>895.19896941269</v>
       </c>
       <c r="C11" t="n">
-        <v>563.5192478431668</v>
+        <v>469.0188964933864</v>
       </c>
       <c r="D11" t="n">
-        <v>463.1115812424741</v>
+        <v>469.0188964933864</v>
       </c>
       <c r="E11" t="n">
-        <v>463.1115812424741</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001354</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2331.823607559807</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T11" t="n">
-        <v>2132.014755926192</v>
+        <v>2160.518725814121</v>
       </c>
       <c r="U11" t="n">
-        <v>2132.014755926192</v>
+        <v>1913.410434232909</v>
       </c>
       <c r="V11" t="n">
-        <v>1781.360205757292</v>
+        <v>1562.755884064008</v>
       </c>
       <c r="W11" t="n">
-        <v>1781.360205757292</v>
+        <v>1302.379032936106</v>
       </c>
       <c r="X11" t="n">
-        <v>1374.180142233875</v>
+        <v>895.19896941269</v>
       </c>
       <c r="Y11" t="n">
-        <v>977.8564184308017</v>
+        <v>895.19896941269</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,13 +5111,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1008.555041942721</v>
+        <v>699.8185640660536</v>
       </c>
       <c r="C13" t="n">
-        <v>847.9557303232187</v>
+        <v>539.2192524465516</v>
       </c>
       <c r="D13" t="n">
-        <v>694.0401374220144</v>
+        <v>522.5255900321232</v>
       </c>
       <c r="E13" t="n">
-        <v>536.2445335700245</v>
+        <v>364.7299861801337</v>
       </c>
       <c r="F13" t="n">
-        <v>371.4998794290536</v>
+        <v>199.9853320391631</v>
       </c>
       <c r="G13" t="n">
-        <v>218.7210989388449</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>98.33943821543376</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>326.7831174369941</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>910.964192855309</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N13" t="n">
-        <v>1480.721907816843</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O13" t="n">
-        <v>2018.157038390387</v>
+        <v>1959.82592890043</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.92609456807</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2227.863438849245</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T13" t="n">
-        <v>1997.578614649924</v>
+        <v>2130.042753248416</v>
       </c>
       <c r="U13" t="n">
-        <v>1997.578614649924</v>
+        <v>1863.618521194432</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.585506417628</v>
+        <v>1588.625412962136</v>
       </c>
       <c r="W13" t="n">
-        <v>1462.521501901192</v>
+        <v>1328.5614084457</v>
       </c>
       <c r="X13" t="n">
-        <v>1403.868531553054</v>
+        <v>1095.132053676386</v>
       </c>
       <c r="Y13" t="n">
-        <v>1188.411260764435</v>
+        <v>879.6747828877675</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>795.2627384760913</v>
+        <v>1967.434522756042</v>
       </c>
       <c r="C14" t="n">
-        <v>795.2627384760913</v>
+        <v>1954.170754097254</v>
       </c>
       <c r="D14" t="n">
-        <v>371.3153535478087</v>
+        <v>1530.223369168972</v>
       </c>
       <c r="E14" t="n">
-        <v>371.3153535478087</v>
+        <v>1108.41102422454</v>
       </c>
       <c r="F14" t="n">
-        <v>304.9657031077714</v>
+        <v>692.5059945310209</v>
       </c>
       <c r="G14" t="n">
-        <v>304.9657031077714</v>
+        <v>304.9657031077712</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001356</v>
@@ -5281,10 +5281,10 @@
         <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5293,37 +5293,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V14" t="n">
-        <v>2009.673027278836</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W14" t="n">
-        <v>1616.779972587143</v>
+        <v>1967.434522756042</v>
       </c>
       <c r="X14" t="n">
-        <v>1209.599909063726</v>
+        <v>1967.434522756042</v>
       </c>
       <c r="Y14" t="n">
-        <v>1209.599909063726</v>
+        <v>1967.434522756042</v>
       </c>
     </row>
     <row r="15">
@@ -5336,37 +5336,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>855.7762614525121</v>
+        <v>850.7594380907295</v>
       </c>
       <c r="C16" t="n">
-        <v>695.17694983301</v>
+        <v>690.1601264712276</v>
       </c>
       <c r="D16" t="n">
-        <v>541.2613569318056</v>
+        <v>536.2445335700235</v>
       </c>
       <c r="E16" t="n">
-        <v>383.4657530798158</v>
+        <v>536.2445335700235</v>
       </c>
       <c r="F16" t="n">
-        <v>218.7210989388449</v>
+        <v>371.4998794290528</v>
       </c>
       <c r="G16" t="n">
-        <v>218.7210989388449</v>
+        <v>218.7210989388444</v>
       </c>
       <c r="H16" t="n">
-        <v>98.33943821543376</v>
+        <v>98.33943821543352</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>295.9524490360518</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>419.8232506543497</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>550.4276429928792</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2227.863438849245</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T16" t="n">
-        <v>1997.578614649924</v>
+        <v>2130.042753248416</v>
       </c>
       <c r="U16" t="n">
-        <v>1786.146863811577</v>
+        <v>1863.618521194432</v>
       </c>
       <c r="V16" t="n">
-        <v>1511.153755579281</v>
+        <v>1588.625412962136</v>
       </c>
       <c r="W16" t="n">
-        <v>1251.089751062845</v>
+        <v>1328.5614084457</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.089751062845</v>
+        <v>1095.132053676386</v>
       </c>
       <c r="Y16" t="n">
-        <v>1035.632480274226</v>
+        <v>1030.615656912443</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1953.147513924321</v>
+        <v>1706.686645764222</v>
       </c>
       <c r="C17" t="n">
-        <v>1953.147513924321</v>
+        <v>1280.506572844919</v>
       </c>
       <c r="D17" t="n">
-        <v>1529.200128996038</v>
+        <v>856.5591879166361</v>
       </c>
       <c r="E17" t="n">
-        <v>1107.387784051606</v>
+        <v>434.7468429722044</v>
       </c>
       <c r="F17" t="n">
-        <v>692.5059945310213</v>
+        <v>434.7468429722044</v>
       </c>
       <c r="G17" t="n">
-        <v>304.9657031077714</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2331.823607559806</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2132.014755926191</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2132.014755926191</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1781.360205757291</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447737</v>
+        <v>1781.360205757291</v>
       </c>
       <c r="X17" t="n">
-        <v>1953.147513924321</v>
+        <v>1706.686645764222</v>
       </c>
       <c r="Y17" t="n">
-        <v>1953.147513924321</v>
+        <v>1706.686645764222</v>
       </c>
     </row>
     <row r="18">
@@ -5573,43 +5573,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>567.3544254675605</v>
+        <v>684.261714062621</v>
       </c>
       <c r="C19" t="n">
-        <v>567.3544254675605</v>
+        <v>523.662402443119</v>
       </c>
       <c r="D19" t="n">
-        <v>567.3544254675605</v>
+        <v>369.7468095419149</v>
       </c>
       <c r="E19" t="n">
-        <v>409.5588216155707</v>
+        <v>211.9512056899253</v>
       </c>
       <c r="F19" t="n">
-        <v>371.4998794290536</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G19" t="n">
-        <v>218.7210989388449</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>98.33943821543376</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L19" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M19" t="n">
-        <v>875.5973915434845</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1445.355106505019</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2227.863438849245</v>
+        <v>2344.770727444304</v>
       </c>
       <c r="T19" t="n">
-        <v>1997.578614649924</v>
+        <v>2114.485903244984</v>
       </c>
       <c r="U19" t="n">
-        <v>1731.15438259594</v>
+        <v>1848.061671191</v>
       </c>
       <c r="V19" t="n">
-        <v>1456.161274363644</v>
+        <v>1573.068562958703</v>
       </c>
       <c r="W19" t="n">
-        <v>1196.097269847208</v>
+        <v>1313.004558442268</v>
       </c>
       <c r="X19" t="n">
-        <v>962.6679150778934</v>
+        <v>1079.575203672953</v>
       </c>
       <c r="Y19" t="n">
-        <v>747.2106442892747</v>
+        <v>864.1179328843349</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1746.181555226487</v>
+        <v>1277.485090699265</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.001482307184</v>
+        <v>1277.485090699265</v>
       </c>
       <c r="D20" t="n">
-        <v>1114.318339475453</v>
+        <v>853.5377057709826</v>
       </c>
       <c r="E20" t="n">
-        <v>692.5059945310213</v>
+        <v>692.5059945310209</v>
       </c>
       <c r="F20" t="n">
-        <v>692.5059945310213</v>
+        <v>692.5059945310209</v>
       </c>
       <c r="G20" t="n">
-        <v>304.9657031077714</v>
+        <v>304.9657031077712</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2331.823607559806</v>
       </c>
       <c r="T20" t="n">
-        <v>2160.518725814122</v>
+        <v>2331.823607559806</v>
       </c>
       <c r="U20" t="n">
-        <v>2160.518725814122</v>
+        <v>2084.715315978593</v>
       </c>
       <c r="V20" t="n">
-        <v>2160.518725814122</v>
+        <v>2084.715315978593</v>
       </c>
       <c r="W20" t="n">
-        <v>2160.518725814122</v>
+        <v>1691.822261286899</v>
       </c>
       <c r="X20" t="n">
-        <v>2160.518725814122</v>
+        <v>1691.822261286899</v>
       </c>
       <c r="Y20" t="n">
-        <v>2160.518725814122</v>
+        <v>1691.822261286899</v>
       </c>
     </row>
     <row r="21">
@@ -5810,43 +5810,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>567.3544254675605</v>
+        <v>684.261714062621</v>
       </c>
       <c r="C22" t="n">
-        <v>406.7551138480584</v>
+        <v>523.662402443119</v>
       </c>
       <c r="D22" t="n">
-        <v>252.839520946854</v>
+        <v>369.7468095419149</v>
       </c>
       <c r="E22" t="n">
-        <v>251.1182187056424</v>
+        <v>211.9512056899253</v>
       </c>
       <c r="F22" t="n">
-        <v>251.1182187056424</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G22" t="n">
-        <v>98.33943821543376</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>98.33943821543376</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5916,46 +5916,46 @@
         <v>289.4920009833859</v>
       </c>
       <c r="L22" t="n">
-        <v>413.3628026016839</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M22" t="n">
-        <v>997.5438780199987</v>
+        <v>962.1770767081742</v>
       </c>
       <c r="N22" t="n">
-        <v>1288.378132818745</v>
+        <v>1531.934791669708</v>
       </c>
       <c r="O22" t="n">
         <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2227.863438849245</v>
+        <v>2344.770727444304</v>
       </c>
       <c r="T22" t="n">
-        <v>1997.578614649924</v>
+        <v>2114.485903244984</v>
       </c>
       <c r="U22" t="n">
-        <v>1731.15438259594</v>
+        <v>1848.061671191</v>
       </c>
       <c r="V22" t="n">
-        <v>1456.161274363644</v>
+        <v>1573.068562958703</v>
       </c>
       <c r="W22" t="n">
-        <v>1196.097269847208</v>
+        <v>1313.004558442268</v>
       </c>
       <c r="X22" t="n">
-        <v>962.6679150778934</v>
+        <v>1079.575203672953</v>
       </c>
       <c r="Y22" t="n">
-        <v>747.2106442892747</v>
+        <v>864.1179328843349</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1303.798843842495</v>
+        <v>2393.016880382563</v>
       </c>
       <c r="C23" t="n">
-        <v>877.6187709231908</v>
+        <v>1966.836807463259</v>
       </c>
       <c r="D23" t="n">
-        <v>453.6713859949083</v>
+        <v>1542.889422534977</v>
       </c>
       <c r="E23" t="n">
-        <v>453.6713859949083</v>
+        <v>1121.077077590545</v>
       </c>
       <c r="F23" t="n">
-        <v>447.4128963382098</v>
+        <v>705.172047897026</v>
       </c>
       <c r="G23" t="n">
-        <v>59.87260491495994</v>
+        <v>317.6317564737764</v>
       </c>
       <c r="H23" t="n">
         <v>59.87260491495994</v>
@@ -5989,22 +5989,22 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>723.9740178625037</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K23" t="n">
-        <v>960.2456682417247</v>
+        <v>524.9909807888066</v>
       </c>
       <c r="L23" t="n">
-        <v>1253.361543105625</v>
+        <v>818.1068556527073</v>
       </c>
       <c r="M23" t="n">
-        <v>1595.737294002693</v>
+        <v>1144.254743821494</v>
       </c>
       <c r="N23" t="n">
-        <v>1927.16259597917</v>
+        <v>1475.680045797972</v>
       </c>
       <c r="O23" t="n">
-        <v>2240.118110520463</v>
+        <v>2216.603531620601</v>
       </c>
       <c r="P23" t="n">
         <v>2507.218401699732</v>
@@ -6019,22 +6019,22 @@
         <v>2965.126275860067</v>
       </c>
       <c r="T23" t="n">
-        <v>2765.317424226452</v>
+        <v>2965.126275860067</v>
       </c>
       <c r="U23" t="n">
-        <v>2518.209132645239</v>
+        <v>2965.126275860067</v>
       </c>
       <c r="V23" t="n">
-        <v>2518.209132645239</v>
+        <v>2965.126275860067</v>
       </c>
       <c r="W23" t="n">
-        <v>2125.316077953546</v>
+        <v>2965.126275860067</v>
       </c>
       <c r="X23" t="n">
-        <v>1718.136014430129</v>
+        <v>2965.126275860067</v>
       </c>
       <c r="Y23" t="n">
-        <v>1718.136014430129</v>
+        <v>2807.354050970197</v>
       </c>
     </row>
     <row r="24">
@@ -6071,13 +6071,13 @@
         <v>187.9826804329032</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L24" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M24" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N24" t="n">
         <v>1074.527417586113</v>
@@ -6132,16 +6132,16 @@
         <v>766.5181902743841</v>
       </c>
       <c r="E25" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G25" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993959</v>
       </c>
       <c r="H25" t="n">
-        <v>122.9678914787119</v>
+        <v>122.9678914787118</v>
       </c>
       <c r="I25" t="n">
         <v>59.87260491495994</v>
@@ -6150,22 +6150,22 @@
         <v>205.3579537818329</v>
       </c>
       <c r="K25" t="n">
-        <v>576.9165089205267</v>
+        <v>302.1580543493911</v>
       </c>
       <c r="L25" t="n">
-        <v>1118.997192306786</v>
+        <v>844.2387377356501</v>
       </c>
       <c r="M25" t="n">
-        <v>1249.601584645315</v>
+        <v>1434.326997255093</v>
       </c>
       <c r="N25" t="n">
-        <v>1819.359299606849</v>
+        <v>2004.084712216627</v>
       </c>
       <c r="O25" t="n">
-        <v>2356.794430180392</v>
+        <v>2541.51984279017</v>
       </c>
       <c r="P25" t="n">
-        <v>2805.070380328417</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1359.657252164034</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="C26" t="n">
-        <v>921.5147793474571</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="D26" t="n">
-        <v>921.5147793474571</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="E26" t="n">
-        <v>487.7400345057522</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="F26" t="n">
-        <v>59.87260491495994</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="G26" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H26" t="n">
         <v>59.87260491495994</v>
@@ -6226,52 +6226,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L26" t="n">
-        <v>818.1068556527074</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M26" t="n">
-        <v>1144.254743821495</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N26" t="n">
-        <v>1475.680045797972</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O26" t="n">
-        <v>1788.635560339265</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P26" t="n">
-        <v>2055.735851518534</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q26" t="n">
-        <v>2796.659337341163</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R26" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U26" t="n">
-        <v>2993.630245747997</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V26" t="n">
-        <v>2993.630245747997</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="W26" t="n">
-        <v>2588.77479115903</v>
+        <v>1714.84952829828</v>
       </c>
       <c r="X26" t="n">
-        <v>2169.632327738341</v>
+        <v>1295.707064877591</v>
       </c>
       <c r="Y26" t="n">
-        <v>1761.346204037995</v>
+        <v>887.4209411772441</v>
       </c>
     </row>
     <row r="27">
@@ -6308,13 +6308,13 @@
         <v>187.9826804329032</v>
       </c>
       <c r="K27" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L27" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M27" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
@@ -6369,10 +6369,10 @@
         <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G28" t="n">
         <v>255.311952099396</v>
@@ -6384,25 +6384,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>118.7782686171431</v>
+        <v>118.778268617143</v>
       </c>
       <c r="K28" t="n">
-        <v>490.3368237558368</v>
+        <v>219.75414325177</v>
       </c>
       <c r="L28" t="n">
-        <v>1032.417507142096</v>
+        <v>761.8348266380289</v>
       </c>
       <c r="M28" t="n">
-        <v>1622.505766661538</v>
+        <v>1351.923086157471</v>
       </c>
       <c r="N28" t="n">
-        <v>1753.488026254673</v>
+        <v>1921.680801119006</v>
       </c>
       <c r="O28" t="n">
-        <v>2290.923156828216</v>
+        <v>2459.115931692549</v>
       </c>
       <c r="P28" t="n">
-        <v>2739.199106976242</v>
+        <v>2907.391881840574</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2028.881494940646</v>
+        <v>713.3589920084268</v>
       </c>
       <c r="C29" t="n">
-        <v>1590.739022124069</v>
+        <v>713.3589920084268</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.739022124069</v>
+        <v>713.3589920084268</v>
       </c>
       <c r="E29" t="n">
-        <v>1156.964277282364</v>
+        <v>713.3589920084268</v>
       </c>
       <c r="F29" t="n">
-        <v>729.0968476915723</v>
+        <v>713.3589920084268</v>
       </c>
       <c r="G29" t="n">
-        <v>329.5941563710495</v>
+        <v>313.8563006879039</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495994</v>
@@ -6466,22 +6466,22 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K29" t="n">
-        <v>1145.627595723062</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L29" t="n">
-        <v>1438.743470586963</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M29" t="n">
-        <v>1764.89135875575</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N29" t="n">
-        <v>2096.316660732227</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O29" t="n">
-        <v>2409.27217527352</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P29" t="n">
-        <v>2676.372466452789</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q29" t="n">
         <v>2876.953661463856</v>
@@ -6490,25 +6490,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T29" t="n">
-        <v>2741.392624431906</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U29" t="n">
-        <v>2741.392624431906</v>
+        <v>2734.559554269511</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.392624431906</v>
+        <v>2371.942604203337</v>
       </c>
       <c r="W29" t="n">
-        <v>2336.53716984294</v>
+        <v>1967.087149614371</v>
       </c>
       <c r="X29" t="n">
-        <v>2336.53716984294</v>
+        <v>1547.944686193681</v>
       </c>
       <c r="Y29" t="n">
-        <v>2028.881494940646</v>
+        <v>1139.658562493335</v>
       </c>
     </row>
     <row r="30">
@@ -6524,40 +6524,40 @@
         <v>448.7808972690382</v>
       </c>
       <c r="D30" t="n">
-        <v>353.6906084155914</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E30" t="n">
-        <v>259.5701937425451</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F30" t="n">
-        <v>176.1863553587067</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G30" t="n">
-        <v>91.8152549483637</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H30" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="I30" t="n">
-        <v>94.08934108643611</v>
+        <v>94.08934108643631</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329033</v>
+        <v>187.9826804329034</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870736</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620955</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M30" t="n">
-        <v>816.0537566647928</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
       </c>
       <c r="O30" t="n">
-        <v>1310.980320400643</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P30" t="n">
         <v>1500.75462096545</v>
@@ -6621,22 +6621,22 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>205.3579537818329</v>
+        <v>118.778268617143</v>
       </c>
       <c r="K31" t="n">
-        <v>576.9165089205267</v>
+        <v>471.2306176132185</v>
       </c>
       <c r="L31" t="n">
-        <v>1118.997192306786</v>
+        <v>1013.311300999477</v>
       </c>
       <c r="M31" t="n">
-        <v>1531.237205263481</v>
+        <v>1603.39956051892</v>
       </c>
       <c r="N31" t="n">
-        <v>2100.994920225015</v>
+        <v>2173.157275480454</v>
       </c>
       <c r="O31" t="n">
-        <v>2638.430050798558</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P31" t="n">
         <v>2739.199106976242</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>893.1500410771876</v>
+        <v>1756.927255493536</v>
       </c>
       <c r="C32" t="n">
-        <v>893.1500410771876</v>
+        <v>1756.927255493536</v>
       </c>
       <c r="D32" t="n">
-        <v>893.1500410771876</v>
+        <v>1321.01747066798</v>
       </c>
       <c r="E32" t="n">
-        <v>459.3752962354828</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="F32" t="n">
         <v>459.3752962354828</v>
@@ -6703,10 +6703,10 @@
         <v>288.7193304095858</v>
       </c>
       <c r="K32" t="n">
-        <v>671.8044010797017</v>
+        <v>671.8044010797021</v>
       </c>
       <c r="L32" t="n">
-        <v>964.9202759436024</v>
+        <v>964.9202759436026</v>
       </c>
       <c r="M32" t="n">
         <v>1291.06816411239</v>
@@ -6730,22 +6730,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T32" t="n">
-        <v>2781.858994217109</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U32" t="n">
-        <v>2781.858994217109</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="V32" t="n">
-        <v>2419.242044150936</v>
+        <v>2631.013295681823</v>
       </c>
       <c r="W32" t="n">
-        <v>2014.386589561969</v>
+        <v>2631.013295681823</v>
       </c>
       <c r="X32" t="n">
-        <v>1595.24412614128</v>
+        <v>2591.51294967879</v>
       </c>
       <c r="Y32" t="n">
-        <v>1186.958002440933</v>
+        <v>2183.226825978443</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1859.550434580796</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C33" t="n">
-        <v>1753.093973417439</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D33" t="n">
-        <v>1658.003684563992</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E33" t="n">
-        <v>1563.883269890945</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F33" t="n">
-        <v>1480.499431507107</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G33" t="n">
-        <v>1396.128331096764</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H33" t="n">
-        <v>1364.18568106336</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>1398.402417234837</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>1492.295756581303</v>
+        <v>187.9826804329034</v>
       </c>
       <c r="K33" t="n">
-        <v>1652.774428635474</v>
+        <v>348.4613524870736</v>
       </c>
       <c r="L33" t="n">
-        <v>1868.557807510496</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M33" t="n">
-        <v>2120.366832813193</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N33" t="n">
-        <v>2378.840493734513</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O33" t="n">
-        <v>2615.293396549044</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P33" t="n">
-        <v>2805.06769711385</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q33" t="n">
-        <v>2931.926791322084</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R33" t="n">
-        <v>2993.630245747997</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S33" t="n">
-        <v>2949.009215147731</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T33" t="n">
-        <v>2822.917660023384</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U33" t="n">
-        <v>2646.647822847265</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V33" t="n">
-        <v>2447.530304909264</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W33" t="n">
-        <v>2262.207550642459</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X33" t="n">
-        <v>2107.340114881339</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y33" t="n">
-        <v>1980.854335660559</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="34">
@@ -6858,13 +6858,13 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>469.7712501553981</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L34" t="n">
-        <v>593.6420517736962</v>
+        <v>1053.125918954609</v>
       </c>
       <c r="M34" t="n">
         <v>1183.730311293139</v>
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1688.947492710957</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="C35" t="n">
-        <v>1250.80501989438</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D35" t="n">
-        <v>814.8952350688246</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E35" t="n">
-        <v>381.1204902271198</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V35" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W35" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X35" t="n">
-        <v>1688.947492710957</v>
+        <v>1107.7262209515</v>
       </c>
       <c r="Y35" t="n">
-        <v>1688.947492710957</v>
+        <v>907.2808668755674</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
         <v>341.0245550495863</v>
@@ -7010,22 +7010,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G37" t="n">
         <v>242.6458987333908</v>
@@ -7092,55 +7092,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>477.6707703898316</v>
+        <v>358.0754347909393</v>
       </c>
       <c r="L37" t="n">
-        <v>601.5415720081295</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M37" t="n">
-        <v>1185.722647426444</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1467.692251924755</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1937.514407000714</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.514407000714</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W37" t="n">
-        <v>1665.488002587005</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X37" t="n">
-        <v>1420.096247920418</v>
+        <v>1177.849023823825</v>
       </c>
       <c r="Y37" t="n">
-        <v>1192.676577234526</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1144.298223916359</v>
+        <v>1106.599419841792</v>
       </c>
       <c r="C38" t="n">
-        <v>1144.298223916359</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D38" t="n">
-        <v>1144.298223916359</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
         <v>805.440802286702</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W38" t="n">
-        <v>1955.47212285877</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X38" t="n">
-        <v>1536.32965943808</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y38" t="n">
-        <v>1536.32965943808</v>
+        <v>1532.8989903267</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>903.0372729147111</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C40" t="n">
-        <v>903.0372729147111</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="D40" t="n">
-        <v>737.1592801162338</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="E40" t="n">
-        <v>567.4012763669712</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F40" t="n">
-        <v>390.6942223287274</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
-        <v>225.9530419412458</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>93.6089813205617</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>733.4227107706873</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M40" t="n">
-        <v>1317.603786189002</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N40" t="n">
-        <v>1887.361501150536</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O40" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1839.693721399886</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W40" t="n">
-        <v>1567.667316986178</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1322.27556231959</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y40" t="n">
-        <v>1094.855891633698</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1262.647922226049</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C41" t="n">
-        <v>1262.647922226049</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D41" t="n">
-        <v>1262.647922226049</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E41" t="n">
-        <v>874.5766724602698</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U41" t="n">
-        <v>2108.089956131646</v>
+        <v>2080.250016141707</v>
       </c>
       <c r="V41" t="n">
-        <v>2108.089956131646</v>
+        <v>1717.633066075534</v>
       </c>
       <c r="W41" t="n">
-        <v>2108.089956131646</v>
+        <v>1312.777611486567</v>
       </c>
       <c r="X41" t="n">
-        <v>1688.947492710957</v>
+        <v>893.635148065878</v>
       </c>
       <c r="Y41" t="n">
-        <v>1688.947492710957</v>
+        <v>485.3490243655314</v>
       </c>
     </row>
     <row r="42">
@@ -7484,22 +7484,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,55 +7545,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>717.0469809559636</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C43" t="n">
-        <v>544.4852694391885</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D43" t="n">
-        <v>378.6072766407112</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E43" t="n">
-        <v>378.6072766407112</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>201.9002226024674</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G43" t="n">
-        <v>201.9002226024674</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>1415.75375978796</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.434443083199</v>
+        <v>1985.511474749494</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2103.277356097256</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
         <v>2215.901038951971</v>
@@ -7608,13 +7608,13 @@
         <v>1408.311674774551</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1169.321687037288</v>
       </c>
       <c r="X43" t="n">
-        <v>1136.285270360843</v>
+        <v>923.9299323707007</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.8655996749508</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>908.8487259814518</v>
+        <v>475.073981139747</v>
       </c>
       <c r="C44" t="n">
-        <v>908.8487259814518</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E44" t="n">
         <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867026</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U44" t="n">
-        <v>2108.089956131646</v>
+        <v>2087.988419700484</v>
       </c>
       <c r="V44" t="n">
-        <v>2108.089956131646</v>
+        <v>1725.371469634311</v>
       </c>
       <c r="W44" t="n">
-        <v>2108.089956131646</v>
+        <v>1320.516015045344</v>
       </c>
       <c r="X44" t="n">
-        <v>1688.947492710957</v>
+        <v>901.3735516246547</v>
       </c>
       <c r="Y44" t="n">
-        <v>1280.661369010611</v>
+        <v>901.3735516246547</v>
       </c>
     </row>
     <row r="45">
@@ -7706,49 +7706,49 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R45" t="n">
         <v>1676.651116233592</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.196554659879</v>
+        <v>743.6816307030845</v>
       </c>
       <c r="C46" t="n">
-        <v>856.6348431431041</v>
+        <v>571.1199191863094</v>
       </c>
       <c r="D46" t="n">
-        <v>690.7568503446269</v>
+        <v>405.2419263878321</v>
       </c>
       <c r="E46" t="n">
-        <v>520.9988465953642</v>
+        <v>235.4839226385694</v>
       </c>
       <c r="F46" t="n">
-        <v>344.2917925571204</v>
+        <v>58.77686860032557</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
@@ -7812,46 +7812,46 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180195</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2058.383717873402</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1779.997085922144</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1493.041577792575</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1221.015173378866</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X46" t="n">
-        <v>1221.015173378866</v>
+        <v>1162.919920107963</v>
       </c>
       <c r="Y46" t="n">
-        <v>1221.015173378866</v>
+        <v>935.5002494220716</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>45.75904403825007</v>
       </c>
       <c r="Q13" t="n">
-        <v>156.7304232042866</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>93.97993254278362</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580925</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>69.27619576520544</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>265.3457328681902</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9564,16 +9564,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>164.9851949443</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>177.8915054291087</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,16 +9646,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>16.39178053361661</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>432.2908800821583</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>23.75209989885025</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>97.88909899837154</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.3550520324811</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>16.39178053361661</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>545.8002937490523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>81.1053779017102</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>4.217953603099716</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10044,7 +10044,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>3.518533120449547</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>187.2544722033711</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>187.2544722033713</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>258.2345943722397</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>284.480424866834</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>148.2963841322172</v>
+        <v>148.2963841322177</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>256.7604858289868</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>355.8975842583684</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520544</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
-        <v>156.0310027216372</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10986,22 +10986,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>410.7470639734277</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>70.75030430845891</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,22 +11460,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N46" t="n">
-        <v>177.1920849464602</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>215.6507358204037</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>410.1937988817583</v>
       </c>
       <c r="C11" t="n">
-        <v>421.9182721901107</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>320.3043211443139</v>
+        <v>419.7079110789995</v>
       </c>
       <c r="E11" t="n">
-        <v>417.5942214949876</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>411.7459793965839</v>
       </c>
       <c r="G11" t="n">
-        <v>383.6648885090174</v>
+        <v>383.6648885090171</v>
       </c>
       <c r="H11" t="n">
-        <v>255.1815600432284</v>
+        <v>255.1815600432282</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>28.21893018905055</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>244.637208665401</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>388.9641241447768</v>
+        <v>131.1910415281536</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.3604865650427</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>135.8497111819079</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>119.1778441161768</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.62155779981398</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>131.1394972125074</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>263.7599897334442</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>173.0286205769648</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>410.1937988817583</v>
       </c>
       <c r="C14" t="n">
-        <v>421.9182721901107</v>
+        <v>408.7871412179097</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>417.5942214949876</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>346.0598254609471</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>383.6648885090174</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.21893018905079</v>
+        <v>28.21893018905056</v>
       </c>
       <c r="T14" t="n">
-        <v>197.8107631172787</v>
+        <v>197.8107631172784</v>
       </c>
       <c r="U14" t="n">
-        <v>244.637208665401</v>
+        <v>244.6372086654007</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>347.1480046672113</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>403.108262888182</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.3604865650429</v>
+        <v>392.3604865650427</v>
       </c>
     </row>
     <row r="15">
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>156.2176478134697</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>151.2509926853066</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>131.1394972125074</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.44255640348078</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.0950612216214</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.4314652844292</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>410.1937988817585</v>
+        <v>410.1937988817583</v>
       </c>
       <c r="C17" t="n">
-        <v>421.9182721901107</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.013007771205196</v>
+        <v>411.7459793965839</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>255.1815600432282</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.21893018905079</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>197.8107631172787</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>244.637208665401</v>
+        <v>244.6372086654007</v>
       </c>
       <c r="V17" t="n">
-        <v>347.1480046672115</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>388.9641241447768</v>
+        <v>388.9641241447766</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>329.1814384950435</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.3604865650429</v>
+        <v>392.3604865650427</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>158.9933185033071</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>152.3764369721923</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>125.4188548349092</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>151.2509926853063</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>119.1778441161768</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>50.62155779981399</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.7382157091093</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>421.9182721901105</v>
       </c>
       <c r="D20" t="n">
-        <v>216.0815996755865</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>258.1728273674252</v>
       </c>
       <c r="F20" t="n">
-        <v>411.7459793965841</v>
+        <v>411.7459793965839</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.21893018905079</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>197.8107631172784</v>
       </c>
       <c r="U20" t="n">
-        <v>244.637208665401</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>347.1480046672115</v>
+        <v>347.1480046672113</v>
       </c>
       <c r="W20" t="n">
-        <v>388.9641241447768</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>403.1082628881822</v>
+        <v>403.108262888182</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.3604865650429</v>
+        <v>392.3604865650427</v>
       </c>
     </row>
     <row r="21">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.5135585946704</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>163.0972075995611</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>151.2509926853063</v>
       </c>
       <c r="H22" t="n">
-        <v>119.177844116177</v>
+        <v>119.1778441161768</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>50.62155779981399</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.7382157091093</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>417.5942214949876</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>405.5500746364526</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>255.1815600432284</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>197.8107631172784</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>244.6372086654007</v>
       </c>
       <c r="V23" t="n">
-        <v>347.1480046672115</v>
+        <v>347.1480046672113</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>388.9641241447766</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>403.108262888182</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.3604865650429</v>
+        <v>236.1659839240719</v>
       </c>
     </row>
     <row r="24">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24.36451242483747</v>
+        <v>265.2957222292436</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>15.58047712631412</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>99.62414431007221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>131.1666930299508</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>375.8456962434793</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>360.0382919450296</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>205.7623619281701</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.51954388101137</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>167.250527153032</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>33.92545361355485</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>245.9497928490893</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25453,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>66.82564967003108</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>16.52592822422353</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>45.24646012516632</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>188.8567378863116</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>40.33821936961412</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>32.70605250968131</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53.94205818119156</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25873,7 +25873,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>196.5177574095003</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>151.6391547027496</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>83.882603987843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>283471.1821323308</v>
+        <v>283471.182132331</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>283471.1821323308</v>
+        <v>283471.182132331</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>283471.1821323307</v>
+        <v>283471.182132331</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>283471.1821323308</v>
+        <v>283471.182132331</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>363458.1554844234</v>
+        <v>363458.1554844236</v>
       </c>
     </row>
     <row r="10">
@@ -26322,31 +26322,31 @@
         <v>497215.4012453022</v>
       </c>
       <c r="E2" t="n">
-        <v>315453.3248167843</v>
+        <v>315453.3248167844</v>
       </c>
       <c r="F2" t="n">
-        <v>315453.3248167841</v>
+        <v>315453.3248167845</v>
       </c>
       <c r="G2" t="n">
-        <v>315453.3248167841</v>
+        <v>315453.3248167845</v>
       </c>
       <c r="H2" t="n">
-        <v>315453.3248167842</v>
+        <v>315453.3248167844</v>
       </c>
       <c r="I2" t="n">
-        <v>371875.3205449766</v>
+        <v>371875.3205449767</v>
       </c>
       <c r="J2" t="n">
-        <v>359337.610556964</v>
+        <v>359337.6105569642</v>
       </c>
       <c r="K2" t="n">
-        <v>359337.610556964</v>
+        <v>359337.6105569641</v>
       </c>
       <c r="L2" t="n">
         <v>359337.610556964</v>
       </c>
       <c r="M2" t="n">
-        <v>298865.3854715528</v>
+        <v>298865.385471553</v>
       </c>
       <c r="N2" t="n">
         <v>298865.3854715528</v>
@@ -26355,7 +26355,7 @@
         <v>298865.385471553</v>
       </c>
       <c r="P2" t="n">
-        <v>298865.385471553</v>
+        <v>298865.3854715529</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560609.421709316</v>
+        <v>560609.4217093161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42102.11971426835</v>
+        <v>42102.11971426842</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>28260.20390398515</v>
+        <v>28260.20390398535</v>
       </c>
       <c r="F4" t="n">
-        <v>28260.20390398516</v>
+        <v>28260.20390398537</v>
       </c>
       <c r="G4" t="n">
-        <v>28260.20390398516</v>
+        <v>28260.20390398534</v>
       </c>
       <c r="H4" t="n">
-        <v>28260.20390398515</v>
+        <v>28260.20390398535</v>
       </c>
       <c r="I4" t="n">
-        <v>58397.93087307963</v>
+        <v>58397.93087307978</v>
       </c>
       <c r="J4" t="n">
-        <v>50865.18133183765</v>
+        <v>50865.18133183767</v>
       </c>
       <c r="K4" t="n">
         <v>50865.18133183767</v>
       </c>
       <c r="L4" t="n">
-        <v>50865.18133183766</v>
+        <v>50865.18133183767</v>
       </c>
       <c r="M4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="N4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895363</v>
       </c>
       <c r="O4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895363</v>
       </c>
       <c r="P4" t="n">
         <v>18294.04639895363</v>
@@ -26490,7 +26490,7 @@
         <v>47046.69153663202</v>
       </c>
       <c r="I5" t="n">
-        <v>56672.89209479598</v>
+        <v>56672.89209479599</v>
       </c>
       <c r="J5" t="n">
         <v>55677.28176780177</v>
@@ -26505,13 +26505,13 @@
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="C6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159678</v>
       </c>
       <c r="D6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="E6" t="n">
-        <v>-320462.9923331488</v>
+        <v>-320973.2203044098</v>
       </c>
       <c r="F6" t="n">
-        <v>240146.4293761669</v>
+        <v>239636.2014049063</v>
       </c>
       <c r="G6" t="n">
-        <v>240146.429376167</v>
+        <v>239636.2014049063</v>
       </c>
       <c r="H6" t="n">
-        <v>240146.429376167</v>
+        <v>239636.2014049063</v>
       </c>
       <c r="I6" t="n">
-        <v>214702.3778628326</v>
+        <v>214340.6288276986</v>
       </c>
       <c r="J6" t="n">
-        <v>252795.1474573246</v>
+        <v>252400.4044485381</v>
       </c>
       <c r="K6" t="n">
-        <v>252795.1474573246</v>
+        <v>252400.404448538</v>
       </c>
       <c r="L6" t="n">
-        <v>252795.1474573246</v>
+        <v>252400.4044485379</v>
       </c>
       <c r="M6" t="n">
-        <v>126924.8789981645</v>
+        <v>126370.9985549428</v>
       </c>
       <c r="N6" t="n">
-        <v>234520.2578629614</v>
+        <v>233966.3774197394</v>
       </c>
       <c r="O6" t="n">
-        <v>234520.2578629616</v>
+        <v>233966.3774197396</v>
       </c>
       <c r="P6" t="n">
-        <v>234520.2578629616</v>
+        <v>233966.3774197395</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="F2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="G2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="H2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="I2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>158.325667075065</v>
+        <v>158.3256670750652</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868691</v>
+        <v>431.7562272868688</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="C11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="D11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="E11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="F11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="G11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="H11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="T11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="U11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="V11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="W11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="X11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="C13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="D13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="E13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="F13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="G13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="H13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="I13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28298,25 +28298,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="T13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="U13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="V13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="W13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="X13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="C14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="D14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="E14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="F14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="G14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="H14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="T14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="U14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="V14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="W14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="X14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="C16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="D16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="E16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="F16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="G16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="H16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="I16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="T16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="U16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="V16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="W16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="X16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="C17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="D17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="E17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="F17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="G17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="H17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="T17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="U17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="V17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="W17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="X17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="C19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="D19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="E19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="F19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="G19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="H19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="I19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="T19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="U19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="V19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="W19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="X19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="C20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="D20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="E20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="F20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="G20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="H20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="T20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="U20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="V20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="W20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="X20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="C22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="D22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="E22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="F22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="G22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="H22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="I22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="T22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="U22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="V22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="W22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="X22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="C23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="D23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="E23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="F23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="G23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="H23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="T23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="U23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="V23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="W23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="X23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830045</v>
       </c>
     </row>
     <row r="24">
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31788,10 +31788,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32405,28 +32405,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32642,28 +32642,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33116,28 +33116,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562314</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>147.5459694702533</v>
       </c>
       <c r="Q13" t="n">
-        <v>227.2024143463632</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35670,7 +35670,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>191.7578119039535</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954891</v>
+        <v>198.8376634256977</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125712</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -35980,7 +35980,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>194.39821760187</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N19" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
-        <v>384.301168573</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125706</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,13 +36138,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36217,7 +36217,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>293.7719745441884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>296.8469411339186</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
@@ -36302,7 +36302,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>345.8340918152198</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>748.4075614369995</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>293.5503738173038</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36436,10 +36436,10 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36448,13 +36448,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
@@ -36518,28 +36518,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447059</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485101</v>
+        <v>199.676024430375</v>
       </c>
       <c r="Q25" t="n">
-        <v>173.8270431745577</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
@@ -36603,22 +36603,22 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>351.1648128330887</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>748.4075614369995</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>198.9605135422562</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36685,10 +36685,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>101.9958329642696</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N28" t="n">
-        <v>132.305312720338</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
         <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>425.9127049096548</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,13 +36846,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>389.8617398913184</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916784</v>
+        <v>34.56235976916805</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108053</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>356.0124737334095</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>416.4040534916112</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561043</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>386.954616838501</v>
+        <v>386.9546168385014</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,7 +37083,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>748.4075614369992</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562314</v>
+        <v>94.84175691562362</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37168,10 +37168,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>354.5383651901567</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366646</v>
+        <v>481.0196060950329</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>575.5128433954892</v>
@@ -37250,7 +37250,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37323,10 +37323,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.6072676879467</v>
       </c>
       <c r="R35" t="n">
         <v>117.855135640546</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916783</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263753</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N37" t="n">
-        <v>284.8177823215256</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,10 +37557,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002376</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233622</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L40" t="n">
-        <v>535.8690858100922</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233622</v>
@@ -37940,28 +37940,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>296.1475206512696</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>172.5372297404624</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125713</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233713</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N46" t="n">
-        <v>305.9788645463486</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>334.6061715252135</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
